--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>GENDER</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>Non-Binary</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>Female</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,7 +441,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -464,47 +461,27 @@
         <v>0.4331933940342921</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4">
-        <v>-0.06424208967240325</v>
+        <v>-0.1064881094800662</v>
       </c>
       <c r="D4">
-        <v>-0.06424208967240325</v>
+        <v>-0.1064881094800662</v>
       </c>
       <c r="E4">
-        <v>0.192553868436321</v>
+        <v>8.211236918339059E-18</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>-0.1064881094800662</v>
-      </c>
-      <c r="D5">
-        <v>-0.1064881094800662</v>
-      </c>
-      <c r="E5">
-        <v>8.211236918339059E-18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>GENDER</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>STAT</t>
+  </si>
+  <si>
+    <t>STAT_COUNT</t>
   </si>
   <si>
     <t>Male</t>
@@ -401,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,13 +426,16 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -441,47 +447,56 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.02813972915713762</v>
+        <v>-0.04802493060300007</v>
       </c>
       <c r="D3">
-        <v>-0.02813972915713762</v>
+        <v>-0.04802493060300007</v>
       </c>
       <c r="E3">
-        <v>0.4331933940342921</v>
+        <v>0.1645936742278773</v>
       </c>
       <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
       <c r="C4">
-        <v>-0.1064881094800662</v>
+        <v>-0.1068663278366101</v>
       </c>
       <c r="D4">
-        <v>-0.1064881094800662</v>
+        <v>-0.1068663278366101</v>
       </c>
       <c r="E4">
-        <v>8.211236918339059E-18</v>
+        <v>3.734270657271541E-19</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.04802493060300007</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="D3">
-        <v>-0.04802493060300007</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="E3">
-        <v>0.1645936742278773</v>
+        <v>0.1645936742278324</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1068663278366101</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="D4">
-        <v>-0.1068663278366101</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="E4">
-        <v>3.734270657271541E-19</v>
+        <v>3.7342706572684E-19</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.04802493060300515</v>
+        <v>-0.02302535896130423</v>
       </c>
       <c r="D3">
-        <v>-0.04802493060300515</v>
+        <v>-0.02302535896130423</v>
       </c>
       <c r="E3">
-        <v>0.1645936742278324</v>
+        <v>0.5034655752917799</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1068663278366113</v>
+        <v>-0.1067143510252782</v>
       </c>
       <c r="D4">
-        <v>-0.1068663278366113</v>
+        <v>-0.1067143510252782</v>
       </c>
       <c r="E4">
-        <v>3.7342706572684E-19</v>
+        <v>4.660174271753537E-18</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.02302535896130423</v>
+        <v>-0.0228967132537099</v>
       </c>
       <c r="D3">
-        <v>-0.02302535896130423</v>
+        <v>-0.0228967132537099</v>
       </c>
       <c r="E3">
-        <v>0.5034655752917799</v>
+        <v>0.5056944086065681</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1067143510252782</v>
+        <v>-0.1066056711036824</v>
       </c>
       <c r="D4">
-        <v>-0.1067143510252782</v>
+        <v>-0.1066056711036824</v>
       </c>
       <c r="E4">
-        <v>4.660174271753537E-18</v>
+        <v>4.844860339705209E-18</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.0228967132537099</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D3">
-        <v>-0.0228967132537099</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="E3">
-        <v>0.5056944086065681</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1066056711036824</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D4">
-        <v>-0.1066056711036824</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="E4">
-        <v>4.844860339705209E-18</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.02826705140175997</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="D3">
-        <v>-0.02826705140175997</v>
+        <v>-0.04802493060300515</v>
       </c>
       <c r="E3">
-        <v>0.4311678685797878</v>
+        <v>0.1645936742278324</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1066556259052317</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="D4">
-        <v>-0.1066556259052317</v>
+        <v>-0.1068663278366113</v>
       </c>
       <c r="E4">
-        <v>7.811888321013099E-18</v>
+        <v>3.7342706572684E-19</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.04802493060300515</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D3">
-        <v>-0.04802493060300515</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="E3">
-        <v>0.1645936742278324</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1068663278366113</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D4">
-        <v>-0.1068663278366113</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="E4">
-        <v>3.7342706572684E-19</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.02826705140175997</v>
+        <v>-0.04122982919626061</v>
       </c>
       <c r="D3">
-        <v>-0.02826705140175997</v>
+        <v>-0.04122982919626061</v>
       </c>
       <c r="E3">
-        <v>0.4311678685797878</v>
+        <v>0.2148589547473078</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1066556259052317</v>
+        <v>-0.1080968759434591</v>
       </c>
       <c r="D4">
-        <v>-0.1066556259052317</v>
+        <v>-0.1080968759434591</v>
       </c>
       <c r="E4">
-        <v>7.811888321013099E-18</v>
+        <v>1.495658553780395E-18</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>

--- a/result_gender.xlsx
+++ b/result_gender.xlsx
@@ -461,13 +461,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>-0.04122982919626061</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="D3">
-        <v>-0.04122982919626061</v>
+        <v>-0.02826705140175997</v>
       </c>
       <c r="E3">
-        <v>0.2148589547473078</v>
+        <v>0.4311678685797878</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -484,13 +484,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>-0.1080968759434591</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="D4">
-        <v>-0.1080968759434591</v>
+        <v>-0.1066556259052317</v>
       </c>
       <c r="E4">
-        <v>1.495658553780395E-18</v>
+        <v>7.811888321013099E-18</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
